--- a/dataanalysis/data/predictions/1200/07301152_1233.xlsx
+++ b/dataanalysis/data/predictions/1200/07301152_1233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="194">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-30</t>
   </si>
   <si>
@@ -593,12 +596,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -956,13 +953,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH98"/>
+  <dimension ref="A1:AI98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1065,19 +1062,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>8.300000000000001</v>
@@ -1095,7 +1095,7 @@
         <v>70506.50999999999</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K2">
         <v>12</v>
@@ -1136,8 +1136,23 @@
       <c r="W2">
         <v>0.41</v>
       </c>
+      <c r="X2">
+        <v>5.77</v>
+      </c>
+      <c r="Y2">
+        <v>5.9</v>
+      </c>
+      <c r="Z2">
+        <v>10.28</v>
+      </c>
       <c r="AC2" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>1</v>
@@ -1145,22 +1160,25 @@
       <c r="AG2">
         <v>8.494839668273926</v>
       </c>
-      <c r="AH2" t="s">
-        <v>193</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-2.42</v>
@@ -1178,7 +1196,7 @@
         <v>26415</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K3">
         <v>16</v>
@@ -1219,8 +1237,23 @@
       <c r="W3">
         <v>-0.34</v>
       </c>
+      <c r="X3">
+        <v>-2.51</v>
+      </c>
+      <c r="Y3">
+        <v>21.58</v>
+      </c>
+      <c r="Z3">
+        <v>-0.83</v>
+      </c>
       <c r="AC3" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1228,22 +1261,25 @@
       <c r="AG3">
         <v>4.618597030639648</v>
       </c>
-      <c r="AH3" t="s">
-        <v>193</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-3.92</v>
@@ -1261,7 +1297,7 @@
         <v>59203.78</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1302,8 +1338,23 @@
       <c r="W4">
         <v>-1.12</v>
       </c>
+      <c r="X4">
+        <v>1.77</v>
+      </c>
+      <c r="Y4">
+        <v>6.46</v>
+      </c>
+      <c r="Z4">
+        <v>1.41</v>
+      </c>
       <c r="AC4" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1311,22 +1362,25 @@
       <c r="AG4">
         <v>2.353407859802246</v>
       </c>
-      <c r="AH4" t="s">
-        <v>193</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300046</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-1.54</v>
@@ -1344,7 +1398,7 @@
         <v>68307.17999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1385,8 +1439,23 @@
       <c r="W5">
         <v>-0.57</v>
       </c>
+      <c r="X5">
+        <v>0.26</v>
+      </c>
+      <c r="Y5">
+        <v>43.05</v>
+      </c>
+      <c r="Z5">
+        <v>0.33</v>
+      </c>
       <c r="AC5" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1394,22 +1463,25 @@
       <c r="AG5">
         <v>2.117970943450928</v>
       </c>
-      <c r="AH5" t="s">
-        <v>193</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300066</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-3.13</v>
@@ -1427,7 +1499,7 @@
         <v>33134.61</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K6">
         <v>14</v>
@@ -1468,8 +1540,23 @@
       <c r="W6">
         <v>-0.35</v>
       </c>
+      <c r="X6">
+        <v>-1.97</v>
+      </c>
+      <c r="Y6">
+        <v>6.16</v>
+      </c>
+      <c r="Z6">
+        <v>-0.32</v>
+      </c>
       <c r="AC6" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1477,22 +1564,25 @@
       <c r="AG6">
         <v>4.610186576843262</v>
       </c>
-      <c r="AH6" t="s">
-        <v>193</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300086</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>6.75</v>
@@ -1510,7 +1600,7 @@
         <v>85873.31</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K7">
         <v>7</v>
@@ -1551,8 +1641,23 @@
       <c r="W7">
         <v>0.08</v>
       </c>
+      <c r="X7">
+        <v>-1.06</v>
+      </c>
+      <c r="Y7">
+        <v>9</v>
+      </c>
+      <c r="Z7">
+        <v>5.39</v>
+      </c>
       <c r="AC7" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1560,22 +1665,25 @@
       <c r="AG7">
         <v>3.928760528564453</v>
       </c>
-      <c r="AH7" t="s">
-        <v>193</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300127</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-3.1</v>
@@ -1593,7 +1701,7 @@
         <v>35363.82</v>
       </c>
       <c r="J8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1634,8 +1742,23 @@
       <c r="W8">
         <v>-0.39</v>
       </c>
+      <c r="X8">
+        <v>-2.96</v>
+      </c>
+      <c r="Y8">
+        <v>30.24</v>
+      </c>
+      <c r="Z8">
+        <v>-0.2</v>
+      </c>
       <c r="AC8" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1643,22 +1766,25 @@
       <c r="AG8">
         <v>3.041874408721924</v>
       </c>
-      <c r="AH8" t="s">
-        <v>193</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300149</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.34</v>
@@ -1676,7 +1802,7 @@
         <v>179356.72</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1717,8 +1843,23 @@
       <c r="W9">
         <v>-1.5</v>
       </c>
+      <c r="X9">
+        <v>3.56</v>
+      </c>
+      <c r="Y9">
+        <v>14.91</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
       <c r="AC9" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1726,22 +1867,25 @@
       <c r="AG9">
         <v>7.209973812103271</v>
       </c>
-      <c r="AH9" t="s">
-        <v>193</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300158</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-4.68</v>
@@ -1759,7 +1903,7 @@
         <v>97172.31</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1800,8 +1944,23 @@
       <c r="W10">
         <v>-1.42</v>
       </c>
+      <c r="X10">
+        <v>16.64</v>
+      </c>
+      <c r="Y10">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>21.01</v>
+      </c>
       <c r="AC10" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1809,22 +1968,25 @@
       <c r="AG10">
         <v>2.086836576461792</v>
       </c>
-      <c r="AH10" t="s">
-        <v>193</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300188</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-6.67</v>
@@ -1842,7 +2004,7 @@
         <v>128619.21</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1883,8 +2045,23 @@
       <c r="W11">
         <v>-0.53</v>
       </c>
+      <c r="X11">
+        <v>-5.13</v>
+      </c>
+      <c r="Y11">
+        <v>17.68</v>
+      </c>
+      <c r="Z11">
+        <v>-3.6</v>
+      </c>
       <c r="AC11" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1892,22 +2069,25 @@
       <c r="AG11">
         <v>9.48792552947998</v>
       </c>
-      <c r="AH11" t="s">
-        <v>193</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300199</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>-1.79</v>
@@ -1925,7 +2105,7 @@
         <v>120868.66</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1966,8 +2146,23 @@
       <c r="W12">
         <v>-0.77</v>
       </c>
+      <c r="X12">
+        <v>7.02</v>
+      </c>
+      <c r="Y12">
+        <v>21.09</v>
+      </c>
+      <c r="Z12">
+        <v>7</v>
+      </c>
       <c r="AC12" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1975,22 +2170,25 @@
       <c r="AG12">
         <v>2.470623731613159</v>
       </c>
-      <c r="AH12" t="s">
-        <v>193</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300224</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-2.63</v>
@@ -2008,7 +2206,7 @@
         <v>45940.08</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2049,8 +2247,23 @@
       <c r="W13">
         <v>0</v>
       </c>
+      <c r="X13">
+        <v>-1.73</v>
+      </c>
+      <c r="Y13">
+        <v>16.28</v>
+      </c>
+      <c r="Z13">
+        <v>0.12</v>
+      </c>
       <c r="AC13" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2058,22 +2271,25 @@
       <c r="AG13">
         <v>0.223654180765152</v>
       </c>
-      <c r="AH13" t="s">
-        <v>193</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300254</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>6.51</v>
@@ -2091,7 +2307,7 @@
         <v>55378.59</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2132,8 +2348,23 @@
       <c r="W14">
         <v>0.12</v>
       </c>
+      <c r="X14">
+        <v>7.09</v>
+      </c>
+      <c r="Y14">
+        <v>14</v>
+      </c>
+      <c r="Z14">
+        <v>6.95</v>
+      </c>
       <c r="AC14" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2141,22 +2372,25 @@
       <c r="AG14">
         <v>1.888336062431335</v>
       </c>
-      <c r="AH14" t="s">
-        <v>193</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300267</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>8.92</v>
@@ -2174,7 +2408,7 @@
         <v>103416.58</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -2215,8 +2449,23 @@
       <c r="W15">
         <v>0.32</v>
       </c>
+      <c r="X15">
+        <v>4.92</v>
+      </c>
+      <c r="Y15">
+        <v>4.82</v>
+      </c>
+      <c r="Z15">
+        <v>3.88</v>
+      </c>
       <c r="AC15" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2224,22 +2473,25 @@
       <c r="AG15">
         <v>2.595855951309204</v>
       </c>
-      <c r="AH15" t="s">
-        <v>193</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300283</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-3.72</v>
@@ -2257,7 +2509,7 @@
         <v>20358.61</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -2298,8 +2550,23 @@
       <c r="W16">
         <v>-0.8</v>
       </c>
+      <c r="X16">
+        <v>0.55</v>
+      </c>
+      <c r="Y16">
+        <v>7.64</v>
+      </c>
+      <c r="Z16">
+        <v>5.38</v>
+      </c>
       <c r="AC16" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2307,22 +2574,25 @@
       <c r="AG16">
         <v>0.2529078722000122</v>
       </c>
-      <c r="AH16" t="s">
-        <v>193</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300291</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>1.1</v>
@@ -2340,7 +2610,7 @@
         <v>22884.12</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -2381,8 +2651,23 @@
       <c r="W17">
         <v>-0.1</v>
       </c>
+      <c r="X17">
+        <v>-3.12</v>
+      </c>
+      <c r="Y17">
+        <v>6.38</v>
+      </c>
+      <c r="Z17">
+        <v>-0.78</v>
+      </c>
       <c r="AC17" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>1</v>
@@ -2390,22 +2675,25 @@
       <c r="AG17">
         <v>7.589207649230957</v>
       </c>
-      <c r="AH17" t="s">
-        <v>193</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300322</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0.64</v>
@@ -2423,7 +2711,7 @@
         <v>94268.83</v>
       </c>
       <c r="J18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -2464,8 +2752,23 @@
       <c r="W18">
         <v>-0.54</v>
       </c>
+      <c r="X18">
+        <v>4.56</v>
+      </c>
+      <c r="Y18">
+        <v>21.48</v>
+      </c>
+      <c r="Z18">
+        <v>14.01</v>
+      </c>
       <c r="AC18" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2473,22 +2776,25 @@
       <c r="AG18">
         <v>3.479128360748291</v>
       </c>
-      <c r="AH18" t="s">
-        <v>193</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300363</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-2.51</v>
@@ -2506,7 +2812,7 @@
         <v>65367.18</v>
       </c>
       <c r="J19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K19">
         <v>6</v>
@@ -2547,8 +2853,23 @@
       <c r="W19">
         <v>-0.38</v>
       </c>
+      <c r="X19">
+        <v>-2.06</v>
+      </c>
+      <c r="Y19">
+        <v>24.7</v>
+      </c>
+      <c r="Z19">
+        <v>-0.5600000000000001</v>
+      </c>
       <c r="AC19" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2556,22 +2877,25 @@
       <c r="AG19">
         <v>2.296094417572021</v>
       </c>
-      <c r="AH19" t="s">
-        <v>193</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300378</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>0.4</v>
@@ -2589,7 +2913,7 @@
         <v>85055.58</v>
       </c>
       <c r="J20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -2630,8 +2954,23 @@
       <c r="W20">
         <v>-0.05</v>
       </c>
+      <c r="X20">
+        <v>6.98</v>
+      </c>
+      <c r="Y20">
+        <v>56.5</v>
+      </c>
+      <c r="Z20">
+        <v>12.91</v>
+      </c>
       <c r="AC20" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2639,22 +2978,25 @@
       <c r="AG20">
         <v>5.692407131195068</v>
       </c>
-      <c r="AH20" t="s">
-        <v>193</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300404</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>2.53</v>
@@ -2672,7 +3014,7 @@
         <v>38126.03</v>
       </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2713,8 +3055,23 @@
       <c r="W21">
         <v>0.42</v>
       </c>
+      <c r="X21">
+        <v>0.8</v>
+      </c>
+      <c r="Y21">
+        <v>11.55</v>
+      </c>
+      <c r="Z21">
+        <v>1.76</v>
+      </c>
       <c r="AC21" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2722,22 +3079,25 @@
       <c r="AG21">
         <v>0.987717866897583</v>
       </c>
-      <c r="AH21" t="s">
-        <v>193</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300410</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-5.22</v>
@@ -2755,7 +3115,7 @@
         <v>41467.89</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -2796,8 +3156,23 @@
       <c r="W22">
         <v>-1.36</v>
       </c>
+      <c r="X22">
+        <v>-0.12</v>
+      </c>
+      <c r="Y22">
+        <v>9.85</v>
+      </c>
+      <c r="Z22">
+        <v>15.47</v>
+      </c>
       <c r="AC22" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2805,22 +3180,25 @@
       <c r="AG22">
         <v>-0.4566683173179626</v>
       </c>
-      <c r="AH22" t="s">
-        <v>193</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300414</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-2.93</v>
@@ -2838,7 +3216,7 @@
         <v>70080.38</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K23">
         <v>13</v>
@@ -2879,8 +3257,23 @@
       <c r="W23">
         <v>-1.12</v>
       </c>
+      <c r="X23">
+        <v>-3.36</v>
+      </c>
+      <c r="Y23">
+        <v>16.01</v>
+      </c>
+      <c r="Z23">
+        <v>2.89</v>
+      </c>
       <c r="AC23" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>1</v>
@@ -2888,22 +3281,25 @@
       <c r="AG23">
         <v>9.281523704528809</v>
       </c>
-      <c r="AH23" t="s">
-        <v>193</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300434</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>8.529999999999999</v>
@@ -2921,7 +3317,7 @@
         <v>60959.63</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2962,8 +3358,23 @@
       <c r="W24">
         <v>0.09</v>
       </c>
+      <c r="X24">
+        <v>-2.67</v>
+      </c>
+      <c r="Y24">
+        <v>11.75</v>
+      </c>
+      <c r="Z24">
+        <v>-0.68</v>
+      </c>
       <c r="AC24" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>1</v>
@@ -2971,22 +3382,25 @@
       <c r="AG24">
         <v>2.523942947387695</v>
       </c>
-      <c r="AH24" t="s">
-        <v>193</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300436</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>0.24</v>
@@ -3004,7 +3418,7 @@
         <v>96076.66</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K25">
         <v>20</v>
@@ -3045,8 +3459,23 @@
       <c r="W25">
         <v>0.02</v>
       </c>
+      <c r="X25">
+        <v>18.04</v>
+      </c>
+      <c r="Y25">
+        <v>116.4</v>
+      </c>
+      <c r="Z25">
+        <v>25.92</v>
+      </c>
       <c r="AC25" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3054,22 +3483,25 @@
       <c r="AG25">
         <v>3.203271150588989</v>
       </c>
-      <c r="AH25" t="s">
-        <v>193</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300469</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>2.77</v>
@@ -3087,7 +3519,7 @@
         <v>45621.32</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K26">
         <v>12</v>
@@ -3128,8 +3560,23 @@
       <c r="W26">
         <v>0.2</v>
       </c>
+      <c r="X26">
+        <v>0.19</v>
+      </c>
+      <c r="Y26">
+        <v>48.73</v>
+      </c>
+      <c r="Z26">
+        <v>1.08</v>
+      </c>
       <c r="AC26" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3137,22 +3584,25 @@
       <c r="AG26">
         <v>4.344394683837891</v>
       </c>
-      <c r="AH26" t="s">
-        <v>193</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300485</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-0.19</v>
@@ -3170,7 +3620,7 @@
         <v>37894.98</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -3211,8 +3661,23 @@
       <c r="W27">
         <v>-0.27</v>
       </c>
+      <c r="X27">
+        <v>0.8</v>
+      </c>
+      <c r="Y27">
+        <v>15.8</v>
+      </c>
+      <c r="Z27">
+        <v>1.8</v>
+      </c>
       <c r="AC27" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3220,22 +3685,25 @@
       <c r="AG27">
         <v>5.4577956199646</v>
       </c>
-      <c r="AH27" t="s">
-        <v>193</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300505</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>0.19</v>
@@ -3253,7 +3721,7 @@
         <v>39192.95</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -3294,8 +3762,23 @@
       <c r="W28">
         <v>0.17</v>
       </c>
+      <c r="X28">
+        <v>0.1</v>
+      </c>
+      <c r="Y28">
+        <v>21.07</v>
+      </c>
+      <c r="Z28">
+        <v>1.54</v>
+      </c>
       <c r="AC28" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3303,22 +3786,25 @@
       <c r="AG28">
         <v>5.044424057006836</v>
       </c>
-      <c r="AH28" t="s">
-        <v>193</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300522</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-2.27</v>
@@ -3336,7 +3822,7 @@
         <v>17552.14</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3377,8 +3863,23 @@
       <c r="W29">
         <v>-0.47</v>
       </c>
+      <c r="X29">
+        <v>0.4</v>
+      </c>
+      <c r="Y29">
+        <v>15.89</v>
+      </c>
+      <c r="Z29">
+        <v>5.23</v>
+      </c>
       <c r="AC29" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3386,22 +3887,25 @@
       <c r="AG29">
         <v>3.637676477432251</v>
       </c>
-      <c r="AH29" t="s">
-        <v>193</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300527</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>-2.01</v>
@@ -3419,7 +3923,7 @@
         <v>65915.09</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K30">
         <v>22</v>
@@ -3460,8 +3964,23 @@
       <c r="W30">
         <v>-0.44</v>
       </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>-100</v>
+      </c>
       <c r="AC30" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3469,22 +3988,25 @@
       <c r="AG30">
         <v>3.559512376785278</v>
       </c>
-      <c r="AH30" t="s">
-        <v>193</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300528</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>20</v>
@@ -3502,7 +4024,7 @@
         <v>150633.83</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K31">
         <v>6</v>
@@ -3543,8 +4065,23 @@
       <c r="W31">
         <v>-2.1</v>
       </c>
+      <c r="X31">
+        <v>-8.289999999999999</v>
+      </c>
+      <c r="Y31">
+        <v>28.26</v>
+      </c>
+      <c r="Z31">
+        <v>11.61</v>
+      </c>
       <c r="AC31" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3552,22 +4089,25 @@
       <c r="AG31">
         <v>11.05735015869141</v>
       </c>
-      <c r="AH31" t="s">
-        <v>193</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300533</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.48</v>
@@ -3585,7 +4125,7 @@
         <v>55499.5</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K32">
         <v>26</v>
@@ -3626,8 +4166,23 @@
       <c r="W32">
         <v>-0.42</v>
       </c>
+      <c r="X32">
+        <v>-4.84</v>
+      </c>
+      <c r="Y32">
+        <v>37.8</v>
+      </c>
+      <c r="Z32">
+        <v>0.32</v>
+      </c>
       <c r="AC32" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3635,22 +4190,25 @@
       <c r="AG32">
         <v>0.9364380240440369</v>
       </c>
-      <c r="AH32" t="s">
-        <v>193</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300537</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>1.25</v>
@@ -3668,7 +4226,7 @@
         <v>36428.45</v>
       </c>
       <c r="J33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3709,8 +4267,23 @@
       <c r="W33">
         <v>0.67</v>
       </c>
+      <c r="X33">
+        <v>-3.12</v>
+      </c>
+      <c r="Y33">
+        <v>27.02</v>
+      </c>
+      <c r="Z33">
+        <v>0.93</v>
+      </c>
       <c r="AC33" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3718,22 +4291,25 @@
       <c r="AG33">
         <v>4.42061710357666</v>
       </c>
-      <c r="AH33" t="s">
-        <v>193</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300539</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-6.07</v>
@@ -3751,7 +4327,7 @@
         <v>74000.88</v>
       </c>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3792,8 +4368,23 @@
       <c r="W34">
         <v>0.97</v>
       </c>
+      <c r="X34">
+        <v>-2.03</v>
+      </c>
+      <c r="Y34">
+        <v>29</v>
+      </c>
+      <c r="Z34">
+        <v>4.66</v>
+      </c>
       <c r="AC34" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3801,22 +4392,25 @@
       <c r="AG34">
         <v>10.94768810272217</v>
       </c>
-      <c r="AH34" t="s">
-        <v>193</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300548</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.87</v>
@@ -3834,7 +4428,7 @@
         <v>129318.62</v>
       </c>
       <c r="J35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K35">
         <v>12</v>
@@ -3875,8 +4469,23 @@
       <c r="W35">
         <v>-0.47</v>
       </c>
+      <c r="X35">
+        <v>-5.2</v>
+      </c>
+      <c r="Y35">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="Z35">
+        <v>3.52</v>
+      </c>
       <c r="AC35" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>1</v>
@@ -3884,22 +4493,25 @@
       <c r="AG35">
         <v>1.437185287475586</v>
       </c>
-      <c r="AH35" t="s">
-        <v>193</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300581</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>-2.54</v>
@@ -3917,7 +4529,7 @@
         <v>141413.73</v>
       </c>
       <c r="J36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -3958,8 +4570,23 @@
       <c r="W36">
         <v>-1.28</v>
       </c>
+      <c r="X36">
+        <v>2.58</v>
+      </c>
+      <c r="Y36">
+        <v>22.99</v>
+      </c>
+      <c r="Z36">
+        <v>3.19</v>
+      </c>
       <c r="AC36" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3967,22 +4594,25 @@
       <c r="AG36">
         <v>2.894577264785767</v>
       </c>
-      <c r="AH36" t="s">
-        <v>193</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300588</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-5.86</v>
@@ -4000,7 +4630,7 @@
         <v>37197.78</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -4041,8 +4671,23 @@
       <c r="W37">
         <v>0.12</v>
       </c>
+      <c r="X37">
+        <v>3.66</v>
+      </c>
+      <c r="Y37">
+        <v>21.12</v>
+      </c>
+      <c r="Z37">
+        <v>11.33</v>
+      </c>
       <c r="AC37" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4050,22 +4695,25 @@
       <c r="AG37">
         <v>7.819350242614746</v>
       </c>
-      <c r="AH37" t="s">
-        <v>193</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300591</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>-1.17</v>
@@ -4083,7 +4731,7 @@
         <v>71520.77</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -4124,8 +4772,23 @@
       <c r="W38">
         <v>-1.62</v>
       </c>
+      <c r="X38">
+        <v>0.93</v>
+      </c>
+      <c r="Y38">
+        <v>12.35</v>
+      </c>
+      <c r="Z38">
+        <v>4.13</v>
+      </c>
       <c r="AC38" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4133,22 +4796,25 @@
       <c r="AG38">
         <v>-0.5887854695320129</v>
       </c>
-      <c r="AH38" t="s">
-        <v>193</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300600</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>13.57</v>
@@ -4166,7 +4832,7 @@
         <v>118803.94</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4207,8 +4873,23 @@
       <c r="W39">
         <v>3.59</v>
       </c>
+      <c r="X39">
+        <v>-5.71</v>
+      </c>
+      <c r="Y39">
+        <v>17.44</v>
+      </c>
+      <c r="Z39">
+        <v>-2.19</v>
+      </c>
       <c r="AC39" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4216,22 +4897,25 @@
       <c r="AG39">
         <v>2.692447900772095</v>
       </c>
-      <c r="AH39" t="s">
-        <v>193</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300631</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-2.08</v>
@@ -4249,7 +4933,7 @@
         <v>21589.35</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K40">
         <v>13</v>
@@ -4290,8 +4974,23 @@
       <c r="W40">
         <v>-0.1</v>
       </c>
+      <c r="X40">
+        <v>-1.95</v>
+      </c>
+      <c r="Y40">
+        <v>31.28</v>
+      </c>
+      <c r="Z40">
+        <v>0.64</v>
+      </c>
       <c r="AC40" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4299,22 +4998,25 @@
       <c r="AG40">
         <v>5.057522773742676</v>
       </c>
-      <c r="AH40" t="s">
-        <v>193</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300644</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-5.35</v>
@@ -4332,7 +5034,7 @@
         <v>29771.12</v>
       </c>
       <c r="J41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K41">
         <v>10</v>
@@ -4373,8 +5075,23 @@
       <c r="W41">
         <v>-1.25</v>
       </c>
+      <c r="X41">
+        <v>-1.07</v>
+      </c>
+      <c r="Y41">
+        <v>33.5</v>
+      </c>
+      <c r="Z41">
+        <v>1.82</v>
+      </c>
       <c r="AC41" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4382,22 +5099,25 @@
       <c r="AG41">
         <v>0.9056237936019897</v>
       </c>
-      <c r="AH41" t="s">
-        <v>193</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300683</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>-4.45</v>
@@ -4415,7 +5135,7 @@
         <v>50560.44</v>
       </c>
       <c r="J42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K42">
         <v>8</v>
@@ -4456,8 +5176,23 @@
       <c r="W42">
         <v>-0.65</v>
       </c>
+      <c r="X42">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="Y42">
+        <v>58.99</v>
+      </c>
+      <c r="Z42">
+        <v>21.98</v>
+      </c>
       <c r="AC42" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4465,22 +5200,25 @@
       <c r="AG42">
         <v>2.685199975967407</v>
       </c>
-      <c r="AH42" t="s">
-        <v>193</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300684</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-1.52</v>
@@ -4498,7 +5236,7 @@
         <v>44144.29</v>
       </c>
       <c r="J43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4539,8 +5277,23 @@
       <c r="W43">
         <v>-0.8</v>
       </c>
+      <c r="X43">
+        <v>0.5</v>
+      </c>
+      <c r="Y43">
+        <v>31.1</v>
+      </c>
+      <c r="Z43">
+        <v>4.12</v>
+      </c>
       <c r="AC43" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4548,22 +5301,25 @@
       <c r="AG43">
         <v>1.49875020980835</v>
       </c>
-      <c r="AH43" t="s">
-        <v>193</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300706</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>3.79</v>
@@ -4581,7 +5337,7 @@
         <v>115595.6</v>
       </c>
       <c r="J44" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4622,8 +5378,23 @@
       <c r="W44">
         <v>-0.95</v>
       </c>
+      <c r="X44">
+        <v>-4.53</v>
+      </c>
+      <c r="Y44">
+        <v>38.33</v>
+      </c>
+      <c r="Z44">
+        <v>6.98</v>
+      </c>
       <c r="AC44" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>1</v>
@@ -4631,22 +5402,25 @@
       <c r="AG44">
         <v>3.054647445678711</v>
       </c>
-      <c r="AH44" t="s">
-        <v>193</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300722</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-1.15</v>
@@ -4664,7 +5438,7 @@
         <v>49347.08</v>
       </c>
       <c r="J45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4705,8 +5479,23 @@
       <c r="W45">
         <v>-0.36</v>
       </c>
+      <c r="X45">
+        <v>0.28</v>
+      </c>
+      <c r="Y45">
+        <v>39.87</v>
+      </c>
+      <c r="Z45">
+        <v>0.83</v>
+      </c>
       <c r="AC45" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4714,22 +5503,25 @@
       <c r="AG45">
         <v>2.178518295288086</v>
       </c>
-      <c r="AH45" t="s">
-        <v>193</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300725</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-5.48</v>
@@ -4747,7 +5539,7 @@
         <v>115550.58</v>
       </c>
       <c r="J46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4788,8 +5580,23 @@
       <c r="W46">
         <v>-0.24</v>
       </c>
+      <c r="X46">
+        <v>-0.08</v>
+      </c>
+      <c r="Y46">
+        <v>51.47</v>
+      </c>
+      <c r="Z46">
+        <v>2.55</v>
+      </c>
       <c r="AC46" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4797,22 +5604,25 @@
       <c r="AG46">
         <v>5.31371021270752</v>
       </c>
-      <c r="AH46" t="s">
-        <v>193</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300732</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>20</v>
@@ -4830,7 +5640,7 @@
         <v>57606.59</v>
       </c>
       <c r="J47" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4871,8 +5681,23 @@
       <c r="W47">
         <v>4.15</v>
       </c>
+      <c r="X47">
+        <v>7.91</v>
+      </c>
+      <c r="Y47">
+        <v>12.74</v>
+      </c>
+      <c r="Z47">
+        <v>19.96</v>
+      </c>
       <c r="AC47" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4880,22 +5705,25 @@
       <c r="AG47">
         <v>8.705288887023926</v>
       </c>
-      <c r="AH47" t="s">
-        <v>194</v>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300747</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>-0.83</v>
@@ -4913,7 +5741,7 @@
         <v>54071.51</v>
       </c>
       <c r="J48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K48">
         <v>10</v>
@@ -4954,8 +5782,23 @@
       <c r="W48">
         <v>-0.16</v>
       </c>
+      <c r="X48">
+        <v>-0.9</v>
+      </c>
+      <c r="Y48">
+        <v>30.76</v>
+      </c>
+      <c r="Z48">
+        <v>3.15</v>
+      </c>
       <c r="AC48" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4963,22 +5806,25 @@
       <c r="AG48">
         <v>3.852498054504395</v>
       </c>
-      <c r="AH48" t="s">
-        <v>193</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300748</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-2.13</v>
@@ -4996,7 +5842,7 @@
         <v>91610.17999999999</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K49">
         <v>14</v>
@@ -5037,8 +5883,23 @@
       <c r="W49">
         <v>-0.42</v>
       </c>
+      <c r="X49">
+        <v>0.11</v>
+      </c>
+      <c r="Y49">
+        <v>27.82</v>
+      </c>
+      <c r="Z49">
+        <v>1.05</v>
+      </c>
       <c r="AC49" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5046,22 +5907,25 @@
       <c r="AG49">
         <v>5.307557582855225</v>
       </c>
-      <c r="AH49" t="s">
-        <v>193</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>300803</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>-1.46</v>
@@ -5079,7 +5943,7 @@
         <v>181357.38</v>
       </c>
       <c r="J50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K50">
         <v>24</v>
@@ -5120,8 +5984,23 @@
       <c r="W50">
         <v>-0.25</v>
       </c>
+      <c r="X50">
+        <v>-3.5</v>
+      </c>
+      <c r="Y50">
+        <v>92.67</v>
+      </c>
+      <c r="Z50">
+        <v>0.16</v>
+      </c>
       <c r="AC50" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5129,22 +6008,25 @@
       <c r="AG50">
         <v>6.717537879943848</v>
       </c>
-      <c r="AH50" t="s">
-        <v>193</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>300835</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>-0.87</v>
@@ -5162,7 +6044,7 @@
         <v>41416.98</v>
       </c>
       <c r="J51" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K51">
         <v>7</v>
@@ -5203,8 +6085,23 @@
       <c r="W51">
         <v>0.53</v>
       </c>
+      <c r="X51">
+        <v>0.92</v>
+      </c>
+      <c r="Y51">
+        <v>60.19</v>
+      </c>
+      <c r="Z51">
+        <v>3.53</v>
+      </c>
       <c r="AC51" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>1</v>
@@ -5212,22 +6109,25 @@
       <c r="AG51">
         <v>4.027894020080566</v>
       </c>
-      <c r="AH51" t="s">
-        <v>193</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>300841</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>8.050000000000001</v>
@@ -5245,7 +6145,7 @@
         <v>49187.34</v>
       </c>
       <c r="J52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -5286,8 +6186,23 @@
       <c r="W52">
         <v>0.5</v>
       </c>
+      <c r="X52">
+        <v>5.76</v>
+      </c>
+      <c r="Y52">
+        <v>78.3</v>
+      </c>
+      <c r="Z52">
+        <v>6.28</v>
+      </c>
       <c r="AC52" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5295,22 +6210,25 @@
       <c r="AG52">
         <v>2.501225233078003</v>
       </c>
-      <c r="AH52" t="s">
-        <v>193</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>300869</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>9.74</v>
@@ -5328,7 +6246,7 @@
         <v>80087.74000000001</v>
       </c>
       <c r="J53" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K53">
         <v>3</v>
@@ -5369,8 +6287,23 @@
       <c r="W53">
         <v>1.1</v>
       </c>
+      <c r="X53">
+        <v>1.07</v>
+      </c>
+      <c r="Y53">
+        <v>21.06</v>
+      </c>
+      <c r="Z53">
+        <v>2.73</v>
+      </c>
       <c r="AC53" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5378,22 +6311,25 @@
       <c r="AG53">
         <v>1.8143470287323</v>
       </c>
-      <c r="AH53" t="s">
-        <v>193</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>300872</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-5.85</v>
@@ -5411,7 +6347,7 @@
         <v>109952.6</v>
       </c>
       <c r="J54" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -5452,8 +6388,23 @@
       <c r="W54">
         <v>-1.77</v>
       </c>
+      <c r="X54">
+        <v>-1.97</v>
+      </c>
+      <c r="Y54">
+        <v>25.86</v>
+      </c>
+      <c r="Z54">
+        <v>-0.8100000000000001</v>
+      </c>
       <c r="AC54" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5461,22 +6412,25 @@
       <c r="AG54">
         <v>1.739832758903503</v>
       </c>
-      <c r="AH54" t="s">
-        <v>193</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>300885</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>4.73</v>
@@ -5494,7 +6448,7 @@
         <v>74713.77</v>
       </c>
       <c r="J55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K55">
         <v>6</v>
@@ -5535,8 +6489,23 @@
       <c r="W55">
         <v>-1.71</v>
       </c>
+      <c r="X55">
+        <v>-0.99</v>
+      </c>
+      <c r="Y55">
+        <v>25.54</v>
+      </c>
+      <c r="Z55">
+        <v>18.9</v>
+      </c>
       <c r="AC55" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5544,22 +6513,25 @@
       <c r="AG55">
         <v>0.7798848748207092</v>
       </c>
-      <c r="AH55" t="s">
-        <v>193</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>300903</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-2.13</v>
@@ -5577,7 +6549,7 @@
         <v>28531.36</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5618,8 +6590,23 @@
       <c r="W56">
         <v>-0.83</v>
       </c>
+      <c r="X56">
+        <v>-1.08</v>
+      </c>
+      <c r="Y56">
+        <v>12.78</v>
+      </c>
+      <c r="Z56">
+        <v>6.77</v>
+      </c>
       <c r="AC56" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5627,22 +6614,25 @@
       <c r="AG56">
         <v>3.081094264984131</v>
       </c>
-      <c r="AH56" t="s">
-        <v>193</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>300907</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>2.88</v>
@@ -5660,7 +6650,7 @@
         <v>23584.65</v>
       </c>
       <c r="J57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -5701,8 +6691,23 @@
       <c r="W57">
         <v>0.35</v>
       </c>
+      <c r="X57">
+        <v>1.39</v>
+      </c>
+      <c r="Y57">
+        <v>33.78</v>
+      </c>
+      <c r="Z57">
+        <v>2.83</v>
+      </c>
       <c r="AC57" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5710,22 +6715,25 @@
       <c r="AG57">
         <v>0.7912889122962952</v>
       </c>
-      <c r="AH57" t="s">
-        <v>193</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>300950</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>-4.65</v>
@@ -5743,7 +6751,7 @@
         <v>19303.41</v>
       </c>
       <c r="J58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K58">
         <v>4</v>
@@ -5784,8 +6792,23 @@
       <c r="W58">
         <v>-1.06</v>
       </c>
+      <c r="X58">
+        <v>-1.88</v>
+      </c>
+      <c r="Y58">
+        <v>30.86</v>
+      </c>
+      <c r="Z58">
+        <v>3.14</v>
+      </c>
       <c r="AC58" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5793,22 +6816,25 @@
       <c r="AG58">
         <v>6.579902172088623</v>
       </c>
-      <c r="AH58" t="s">
-        <v>193</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>300987</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>3.51</v>
@@ -5826,7 +6852,7 @@
         <v>34193.72</v>
       </c>
       <c r="J59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -5867,8 +6893,23 @@
       <c r="W59">
         <v>0.2</v>
       </c>
+      <c r="X59">
+        <v>-1.39</v>
+      </c>
+      <c r="Y59">
+        <v>22.79</v>
+      </c>
+      <c r="Z59">
+        <v>1.7</v>
+      </c>
       <c r="AC59" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5876,22 +6917,25 @@
       <c r="AG59">
         <v>1.749176383018494</v>
       </c>
-      <c r="AH59" t="s">
-        <v>193</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301007</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>0.97</v>
@@ -5909,7 +6953,7 @@
         <v>52074.9</v>
       </c>
       <c r="J60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K60">
         <v>4</v>
@@ -5950,8 +6994,23 @@
       <c r="W60">
         <v>-0.73</v>
       </c>
+      <c r="X60">
+        <v>-0.05</v>
+      </c>
+      <c r="Y60">
+        <v>39.68</v>
+      </c>
+      <c r="Z60">
+        <v>2.88</v>
+      </c>
       <c r="AC60" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -5959,22 +7018,25 @@
       <c r="AG60">
         <v>4.612884998321533</v>
       </c>
-      <c r="AH60" t="s">
-        <v>193</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301038</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>9.1</v>
@@ -5992,7 +7054,7 @@
         <v>96743.28</v>
       </c>
       <c r="J61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -6033,8 +7095,23 @@
       <c r="W61">
         <v>-0.14</v>
       </c>
+      <c r="X61">
+        <v>-10</v>
+      </c>
+      <c r="Y61">
+        <v>32.5</v>
+      </c>
+      <c r="Z61">
+        <v>-2.87</v>
+      </c>
       <c r="AC61" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6042,22 +7119,25 @@
       <c r="AG61">
         <v>6.692943096160889</v>
       </c>
-      <c r="AH61" t="s">
-        <v>193</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301132</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>1.93</v>
@@ -6075,7 +7155,7 @@
         <v>34734</v>
       </c>
       <c r="J62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -6116,8 +7196,23 @@
       <c r="W62">
         <v>-1.16</v>
       </c>
+      <c r="X62">
+        <v>-3.2</v>
+      </c>
+      <c r="Y62">
+        <v>40.51</v>
+      </c>
+      <c r="Z62">
+        <v>0.87</v>
+      </c>
       <c r="AC62" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -6125,22 +7220,25 @@
       <c r="AG62">
         <v>1.968589186668396</v>
       </c>
-      <c r="AH62" t="s">
-        <v>193</v>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301150</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>-4.78</v>
@@ -6158,7 +7256,7 @@
         <v>27935.31</v>
       </c>
       <c r="J63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K63">
         <v>4</v>
@@ -6199,8 +7297,23 @@
       <c r="W63">
         <v>-1.19</v>
       </c>
+      <c r="X63">
+        <v>11.69</v>
+      </c>
+      <c r="Y63">
+        <v>30.5</v>
+      </c>
+      <c r="Z63">
+        <v>18.82</v>
+      </c>
       <c r="AC63" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6208,22 +7321,25 @@
       <c r="AG63">
         <v>2.979633808135986</v>
       </c>
-      <c r="AH63" t="s">
-        <v>193</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>301151</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>6.55</v>
@@ -6241,7 +7357,7 @@
         <v>41540.26</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -6282,8 +7398,23 @@
       <c r="W64">
         <v>0.31</v>
       </c>
+      <c r="X64">
+        <v>-3.55</v>
+      </c>
+      <c r="Y64">
+        <v>24.32</v>
+      </c>
+      <c r="Z64">
+        <v>-0.33</v>
+      </c>
       <c r="AC64" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6291,22 +7422,25 @@
       <c r="AG64">
         <v>1.654962182044983</v>
       </c>
-      <c r="AH64" t="s">
-        <v>193</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>301161</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>2.15</v>
@@ -6324,7 +7458,7 @@
         <v>34453.26</v>
       </c>
       <c r="J65" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -6365,8 +7499,23 @@
       <c r="W65">
         <v>-0.43</v>
       </c>
+      <c r="X65">
+        <v>-4.1</v>
+      </c>
+      <c r="Y65">
+        <v>29.5</v>
+      </c>
+      <c r="Z65">
+        <v>-1.63</v>
+      </c>
       <c r="AC65" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>0</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6374,22 +7523,25 @@
       <c r="AG65">
         <v>-0.9659019112586975</v>
       </c>
-      <c r="AH65" t="s">
-        <v>193</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>301176</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>1.11</v>
@@ -6407,7 +7559,7 @@
         <v>23593.39</v>
       </c>
       <c r="J66" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -6448,8 +7600,23 @@
       <c r="W66">
         <v>-0.62</v>
       </c>
+      <c r="X66">
+        <v>-5.2</v>
+      </c>
+      <c r="Y66">
+        <v>34.3</v>
+      </c>
+      <c r="Z66">
+        <v>2.11</v>
+      </c>
       <c r="AC66" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6457,22 +7624,25 @@
       <c r="AG66">
         <v>-0.5426046252250671</v>
       </c>
-      <c r="AH66" t="s">
-        <v>193</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>301183</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>-0.78</v>
@@ -6490,7 +7660,7 @@
         <v>37203.09</v>
       </c>
       <c r="J67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K67">
         <v>11</v>
@@ -6531,8 +7701,23 @@
       <c r="W67">
         <v>-0.93</v>
       </c>
+      <c r="X67">
+        <v>5.94</v>
+      </c>
+      <c r="Y67">
+        <v>74.3</v>
+      </c>
+      <c r="Z67">
+        <v>11.61</v>
+      </c>
       <c r="AC67" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6540,22 +7725,25 @@
       <c r="AG67">
         <v>1.489145040512085</v>
       </c>
-      <c r="AH67" t="s">
-        <v>193</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>301200</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>-5.45</v>
@@ -6573,7 +7761,7 @@
         <v>44161.51</v>
       </c>
       <c r="J68" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K68">
         <v>5</v>
@@ -6614,8 +7802,23 @@
       <c r="W68">
         <v>-0.35</v>
       </c>
+      <c r="X68">
+        <v>9.76</v>
+      </c>
+      <c r="Y68">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="Z68">
+        <v>23.18</v>
+      </c>
       <c r="AC68" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6623,22 +7826,25 @@
       <c r="AG68">
         <v>3.146778106689453</v>
       </c>
-      <c r="AH68" t="s">
-        <v>193</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>301217</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>-1.12</v>
@@ -6656,7 +7862,7 @@
         <v>106669.73</v>
       </c>
       <c r="J69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K69">
         <v>18</v>
@@ -6697,8 +7903,23 @@
       <c r="W69">
         <v>-0.14</v>
       </c>
+      <c r="X69">
+        <v>-2.07</v>
+      </c>
+      <c r="Y69">
+        <v>27.6</v>
+      </c>
+      <c r="Z69">
+        <v>4.23</v>
+      </c>
       <c r="AC69" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -6706,22 +7927,25 @@
       <c r="AG69">
         <v>3.563378095626831</v>
       </c>
-      <c r="AH69" t="s">
-        <v>193</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>301285</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-6.28</v>
@@ -6739,7 +7963,7 @@
         <v>47274.6</v>
       </c>
       <c r="J70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -6780,8 +8004,23 @@
       <c r="W70">
         <v>0.54</v>
       </c>
+      <c r="X70">
+        <v>-2.92</v>
+      </c>
+      <c r="Y70">
+        <v>43</v>
+      </c>
+      <c r="Z70">
+        <v>4.02</v>
+      </c>
       <c r="AC70" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -6789,22 +8028,25 @@
       <c r="AG70">
         <v>1.814095735549927</v>
       </c>
-      <c r="AH70" t="s">
-        <v>193</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>301306</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>-3.87</v>
@@ -6822,7 +8064,7 @@
         <v>33992.63</v>
       </c>
       <c r="J71" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K71">
         <v>6</v>
@@ -6863,8 +8105,23 @@
       <c r="W71">
         <v>-2.29</v>
       </c>
+      <c r="X71">
+        <v>-4.09</v>
+      </c>
+      <c r="Y71">
+        <v>67.03</v>
+      </c>
+      <c r="Z71">
+        <v>4.07</v>
+      </c>
       <c r="AC71" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -6872,22 +8129,25 @@
       <c r="AG71">
         <v>3.396022796630859</v>
       </c>
-      <c r="AH71" t="s">
-        <v>193</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>301345</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-0.22</v>
@@ -6905,7 +8165,7 @@
         <v>30340.17</v>
       </c>
       <c r="J72" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K72">
         <v>5</v>
@@ -6946,8 +8206,23 @@
       <c r="W72">
         <v>0.1</v>
       </c>
+      <c r="X72">
+        <v>-2.23</v>
+      </c>
+      <c r="Y72">
+        <v>164.37</v>
+      </c>
+      <c r="Z72">
+        <v>2.1</v>
+      </c>
       <c r="AC72" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -6955,22 +8230,25 @@
       <c r="AG72">
         <v>3.071576595306396</v>
       </c>
-      <c r="AH72" t="s">
-        <v>193</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>301357</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>-0.48</v>
@@ -6988,7 +8266,7 @@
         <v>78597.39999999999</v>
       </c>
       <c r="J73" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7029,8 +8307,23 @@
       <c r="W73">
         <v>-3.23</v>
       </c>
+      <c r="X73">
+        <v>17.22</v>
+      </c>
+      <c r="Y73">
+        <v>105</v>
+      </c>
+      <c r="Z73">
+        <v>20.77</v>
+      </c>
       <c r="AC73" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
       </c>
       <c r="AF73">
         <v>1</v>
@@ -7038,22 +8331,25 @@
       <c r="AG73">
         <v>1.396697282791138</v>
       </c>
-      <c r="AH73" t="s">
-        <v>193</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>301377</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>-1.62</v>
@@ -7071,7 +8367,7 @@
         <v>29521.41</v>
       </c>
       <c r="J74" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K74">
         <v>12</v>
@@ -7112,8 +8408,23 @@
       <c r="W74">
         <v>0.09</v>
       </c>
+      <c r="X74">
+        <v>-1.38</v>
+      </c>
+      <c r="Y74">
+        <v>57.5</v>
+      </c>
+      <c r="Z74">
+        <v>6.27</v>
+      </c>
       <c r="AC74" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7121,22 +8432,25 @@
       <c r="AG74">
         <v>5.8584303855896</v>
       </c>
-      <c r="AH74" t="s">
-        <v>193</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>301389</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-1.91</v>
@@ -7154,7 +8468,7 @@
         <v>40683.97</v>
       </c>
       <c r="J75" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K75">
         <v>17</v>
@@ -7195,8 +8509,23 @@
       <c r="W75">
         <v>-1.2</v>
       </c>
+      <c r="X75">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>39.44</v>
+      </c>
+      <c r="Z75">
+        <v>11.22</v>
+      </c>
       <c r="AC75" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7204,22 +8533,25 @@
       <c r="AG75">
         <v>5.218163013458252</v>
       </c>
-      <c r="AH75" t="s">
-        <v>193</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>301392</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>1.29</v>
@@ -7237,7 +8569,7 @@
         <v>36067.59</v>
       </c>
       <c r="J76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7278,8 +8610,23 @@
       <c r="W76">
         <v>0.14</v>
       </c>
+      <c r="X76">
+        <v>-4.58</v>
+      </c>
+      <c r="Y76">
+        <v>167.2</v>
+      </c>
+      <c r="Z76">
+        <v>3.17</v>
+      </c>
       <c r="AC76" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7287,22 +8634,25 @@
       <c r="AG76">
         <v>3.690330266952515</v>
       </c>
-      <c r="AH76" t="s">
-        <v>193</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>301421</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>0.42</v>
@@ -7320,7 +8670,7 @@
         <v>24849.65</v>
       </c>
       <c r="J77" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K77">
         <v>28</v>
@@ -7361,8 +8711,23 @@
       <c r="W77">
         <v>-0.48</v>
       </c>
+      <c r="X77">
+        <v>-3.68</v>
+      </c>
+      <c r="Y77">
+        <v>78.5</v>
+      </c>
+      <c r="Z77">
+        <v>-0.19</v>
+      </c>
       <c r="AC77" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7370,22 +8735,25 @@
       <c r="AG77">
         <v>2.856551885604858</v>
       </c>
-      <c r="AH77" t="s">
-        <v>193</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>301511</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>0.5</v>
@@ -7403,7 +8771,7 @@
         <v>165687.94</v>
       </c>
       <c r="J78" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K78">
         <v>27</v>
@@ -7444,8 +8812,23 @@
       <c r="W78">
         <v>1.44</v>
       </c>
+      <c r="X78">
+        <v>1.5</v>
+      </c>
+      <c r="Y78">
+        <v>38.35</v>
+      </c>
+      <c r="Z78">
+        <v>11.74</v>
+      </c>
       <c r="AC78" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>1</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7453,22 +8836,25 @@
       <c r="AG78">
         <v>7.08806848526001</v>
       </c>
-      <c r="AH78" t="s">
-        <v>193</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>301526</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-2.2</v>
@@ -7486,7 +8872,7 @@
         <v>32716.06</v>
       </c>
       <c r="J79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K79">
         <v>17</v>
@@ -7527,8 +8913,23 @@
       <c r="W79">
         <v>-0.63</v>
       </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <v>5.09</v>
+      </c>
+      <c r="Z79">
+        <v>4.09</v>
+      </c>
       <c r="AC79" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7536,22 +8937,25 @@
       <c r="AG79">
         <v>4.745337009429932</v>
       </c>
-      <c r="AH79" t="s">
-        <v>193</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>301529</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>-2.63</v>
@@ -7569,7 +8973,7 @@
         <v>17418.99</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K80">
         <v>8</v>
@@ -7610,8 +9014,23 @@
       <c r="W80">
         <v>-0.46</v>
       </c>
+      <c r="X80">
+        <v>6.27</v>
+      </c>
+      <c r="Y80">
+        <v>61.7</v>
+      </c>
+      <c r="Z80">
+        <v>5.61</v>
+      </c>
       <c r="AC80" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7619,22 +9038,25 @@
       <c r="AG80">
         <v>6.282354831695557</v>
       </c>
-      <c r="AH80" t="s">
-        <v>193</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>301580</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>-2.75</v>
@@ -7652,7 +9074,7 @@
         <v>28496.71</v>
       </c>
       <c r="J81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -7693,8 +9115,23 @@
       <c r="W81">
         <v>-0.04</v>
       </c>
+      <c r="X81">
+        <v>-2.63</v>
+      </c>
+      <c r="Y81">
+        <v>51.61</v>
+      </c>
+      <c r="Z81">
+        <v>-0.64</v>
+      </c>
       <c r="AC81" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -7702,22 +9139,25 @@
       <c r="AG81">
         <v>1.505705237388611</v>
       </c>
-      <c r="AH81" t="s">
-        <v>193</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688020</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>-3.64</v>
@@ -7735,7 +9175,7 @@
         <v>50857.38</v>
       </c>
       <c r="J82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -7776,8 +9216,23 @@
       <c r="W82">
         <v>-1.02</v>
       </c>
+      <c r="X82">
+        <v>2.12</v>
+      </c>
+      <c r="Y82">
+        <v>62.5</v>
+      </c>
+      <c r="Z82">
+        <v>14.66</v>
+      </c>
       <c r="AC82" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD82">
+        <v>1</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>1</v>
@@ -7785,22 +9240,25 @@
       <c r="AG82">
         <v>7.877874374389648</v>
       </c>
-      <c r="AH82" t="s">
-        <v>193</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34">
+    <row r="83" spans="1:35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83">
         <v>688062</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>-0.95</v>
@@ -7818,7 +9276,7 @@
         <v>34832.76</v>
       </c>
       <c r="J83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -7859,8 +9317,23 @@
       <c r="W83">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X83">
+        <v>3.88</v>
+      </c>
+      <c r="Y83">
+        <v>37</v>
+      </c>
+      <c r="Z83">
+        <v>7.03</v>
+      </c>
       <c r="AC83" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD83">
+        <v>1</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
       </c>
       <c r="AF83">
         <v>1</v>
@@ -7868,22 +9341,25 @@
       <c r="AG83">
         <v>6.2350754737854</v>
       </c>
-      <c r="AH83" t="s">
-        <v>193</v>
+      <c r="AH83">
+        <v>0</v>
+      </c>
+      <c r="AI83">
+        <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34">
+    <row r="84" spans="1:35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C84">
         <v>688110</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84">
         <v>17.91</v>
@@ -7901,7 +9377,7 @@
         <v>294398.28</v>
       </c>
       <c r="J84" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -7942,8 +9418,23 @@
       <c r="W84">
         <v>-1.26</v>
       </c>
+      <c r="X84">
+        <v>19.99</v>
+      </c>
+      <c r="Y84">
+        <v>64.76000000000001</v>
+      </c>
+      <c r="Z84">
+        <v>19.4</v>
+      </c>
       <c r="AC84" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD84">
+        <v>1</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
       <c r="AF84">
         <v>1</v>
@@ -7951,22 +9442,25 @@
       <c r="AG84">
         <v>4.264369487762451</v>
       </c>
-      <c r="AH84" t="s">
-        <v>193</v>
+      <c r="AH84">
+        <v>0</v>
+      </c>
+      <c r="AI84">
+        <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34">
+    <row r="85" spans="1:35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C85">
         <v>688189</v>
       </c>
       <c r="D85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -7984,7 +9478,7 @@
         <v>51954.41</v>
       </c>
       <c r="J85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -8025,8 +9519,23 @@
       <c r="W85">
         <v>1.67</v>
       </c>
+      <c r="X85">
+        <v>20.03</v>
+      </c>
+      <c r="Y85">
+        <v>17.14</v>
+      </c>
+      <c r="Z85">
+        <v>20.03</v>
+      </c>
       <c r="AC85" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD85">
+        <v>1</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
       </c>
       <c r="AF85">
         <v>1</v>
@@ -8034,22 +9543,25 @@
       <c r="AG85">
         <v>17.67077445983887</v>
       </c>
-      <c r="AH85" t="s">
-        <v>194</v>
+      <c r="AH85">
+        <v>1</v>
+      </c>
+      <c r="AI85">
+        <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34">
+    <row r="86" spans="1:35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86">
         <v>688202</v>
       </c>
       <c r="D86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E86">
         <v>-3.9</v>
@@ -8067,7 +9579,7 @@
         <v>36613.9</v>
       </c>
       <c r="J86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K86">
         <v>17</v>
@@ -8108,8 +9620,23 @@
       <c r="W86">
         <v>-0.58</v>
       </c>
+      <c r="X86">
+        <v>1.04</v>
+      </c>
+      <c r="Y86">
+        <v>65.16</v>
+      </c>
+      <c r="Z86">
+        <v>0.98</v>
+      </c>
       <c r="AC86" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD86">
+        <v>0</v>
+      </c>
+      <c r="AE86">
+        <v>0</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -8117,22 +9644,25 @@
       <c r="AG86">
         <v>3.042785882949829</v>
       </c>
-      <c r="AH86" t="s">
-        <v>193</v>
+      <c r="AH86">
+        <v>0</v>
+      </c>
+      <c r="AI86">
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34">
+    <row r="87" spans="1:35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87">
         <v>688210</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>-4.83</v>
@@ -8150,7 +9680,7 @@
         <v>22129.21</v>
       </c>
       <c r="J87" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K87">
         <v>5</v>
@@ -8191,8 +9721,23 @@
       <c r="W87">
         <v>-0.55</v>
       </c>
+      <c r="X87">
+        <v>-1.19</v>
+      </c>
+      <c r="Y87">
+        <v>35.21</v>
+      </c>
+      <c r="Z87">
+        <v>2.06</v>
+      </c>
       <c r="AC87" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+      <c r="AE87">
+        <v>0</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -8200,22 +9745,25 @@
       <c r="AG87">
         <v>6.013976097106934</v>
       </c>
-      <c r="AH87" t="s">
-        <v>193</v>
+      <c r="AH87">
+        <v>0</v>
+      </c>
+      <c r="AI87">
+        <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34">
+    <row r="88" spans="1:35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C88">
         <v>688221</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>0.98</v>
@@ -8233,7 +9781,7 @@
         <v>51633.14</v>
       </c>
       <c r="J88" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K88">
         <v>3</v>
@@ -8274,8 +9822,23 @@
       <c r="W88">
         <v>0.03</v>
       </c>
+      <c r="X88">
+        <v>-3.38</v>
+      </c>
+      <c r="Y88">
+        <v>22.6</v>
+      </c>
+      <c r="Z88">
+        <v>-0.18</v>
+      </c>
       <c r="AC88" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD88">
+        <v>0</v>
+      </c>
+      <c r="AE88">
+        <v>0</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -8283,22 +9846,25 @@
       <c r="AG88">
         <v>1.715672612190247</v>
       </c>
-      <c r="AH88" t="s">
-        <v>193</v>
+      <c r="AH88">
+        <v>0</v>
+      </c>
+      <c r="AI88">
+        <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34">
+    <row r="89" spans="1:35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C89">
         <v>688222</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E89">
         <v>1.73</v>
@@ -8316,7 +9882,7 @@
         <v>60371.62</v>
       </c>
       <c r="J89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K89">
         <v>9</v>
@@ -8357,8 +9923,23 @@
       <c r="W89">
         <v>0.41</v>
       </c>
+      <c r="X89">
+        <v>-0.89</v>
+      </c>
+      <c r="Y89">
+        <v>24.2</v>
+      </c>
+      <c r="Z89">
+        <v>0.29</v>
+      </c>
       <c r="AC89" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -8366,22 +9947,25 @@
       <c r="AG89">
         <v>5.666515350341797</v>
       </c>
-      <c r="AH89" t="s">
-        <v>193</v>
+      <c r="AH89">
+        <v>0</v>
+      </c>
+      <c r="AI89">
+        <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34">
+    <row r="90" spans="1:35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C90">
         <v>688313</v>
       </c>
       <c r="D90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E90">
         <v>-7.75</v>
@@ -8399,7 +9983,7 @@
         <v>204003.89</v>
       </c>
       <c r="J90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K90">
         <v>31</v>
@@ -8440,8 +10024,23 @@
       <c r="W90">
         <v>-0.92</v>
       </c>
+      <c r="X90">
+        <v>-12.46</v>
+      </c>
+      <c r="Y90">
+        <v>64.28</v>
+      </c>
+      <c r="Z90">
+        <v>4.18</v>
+      </c>
       <c r="AC90" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD90">
+        <v>0</v>
+      </c>
+      <c r="AE90">
+        <v>0</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -8449,22 +10048,25 @@
       <c r="AG90">
         <v>0.716733992099762</v>
       </c>
-      <c r="AH90" t="s">
-        <v>193</v>
+      <c r="AH90">
+        <v>0</v>
+      </c>
+      <c r="AI90">
+        <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34">
+    <row r="91" spans="1:35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C91">
         <v>688425</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91">
         <v>-1.63</v>
@@ -8482,7 +10084,7 @@
         <v>108321.2</v>
       </c>
       <c r="J91" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K91">
         <v>5</v>
@@ -8523,8 +10125,23 @@
       <c r="W91">
         <v>-0.12</v>
       </c>
+      <c r="X91">
+        <v>-3.69</v>
+      </c>
+      <c r="Y91">
+        <v>6.55</v>
+      </c>
+      <c r="Z91">
+        <v>-1.36</v>
+      </c>
       <c r="AC91" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+      <c r="AE91">
+        <v>0</v>
       </c>
       <c r="AF91">
         <v>0</v>
@@ -8532,22 +10149,25 @@
       <c r="AG91">
         <v>3.553780078887939</v>
       </c>
-      <c r="AH91" t="s">
-        <v>193</v>
+      <c r="AH91">
+        <v>0</v>
+      </c>
+      <c r="AI91">
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34">
+    <row r="92" spans="1:35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C92">
         <v>688499</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92">
         <v>-4.19</v>
@@ -8565,7 +10185,7 @@
         <v>58044.04</v>
       </c>
       <c r="J92" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K92">
         <v>32</v>
@@ -8606,8 +10226,23 @@
       <c r="W92">
         <v>-0.19</v>
       </c>
+      <c r="X92">
+        <v>-2.95</v>
+      </c>
+      <c r="Y92">
+        <v>54.41</v>
+      </c>
+      <c r="Z92">
+        <v>0.48</v>
+      </c>
       <c r="AC92" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+      <c r="AE92">
+        <v>0</v>
       </c>
       <c r="AF92">
         <v>1</v>
@@ -8615,22 +10250,25 @@
       <c r="AG92">
         <v>7.114516735076904</v>
       </c>
-      <c r="AH92" t="s">
-        <v>193</v>
+      <c r="AH92">
+        <v>0</v>
+      </c>
+      <c r="AI92">
+        <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34">
+    <row r="93" spans="1:35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C93">
         <v>688502</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E93">
         <v>0.03</v>
@@ -8648,7 +10286,7 @@
         <v>38009.55</v>
       </c>
       <c r="J93" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K93">
         <v>3</v>
@@ -8689,8 +10327,23 @@
       <c r="W93">
         <v>0.12</v>
       </c>
+      <c r="X93">
+        <v>-4.51</v>
+      </c>
+      <c r="Y93">
+        <v>348.88</v>
+      </c>
+      <c r="Z93">
+        <v>0.82</v>
+      </c>
       <c r="AC93" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+      <c r="AE93">
+        <v>0</v>
       </c>
       <c r="AF93">
         <v>0</v>
@@ -8698,22 +10351,25 @@
       <c r="AG93">
         <v>2.554364919662476</v>
       </c>
-      <c r="AH93" t="s">
-        <v>193</v>
+      <c r="AH93">
+        <v>0</v>
+      </c>
+      <c r="AI93">
+        <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34">
+    <row r="94" spans="1:35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C94">
         <v>688556</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E94">
         <v>-0.91</v>
@@ -8731,7 +10387,7 @@
         <v>32477.62</v>
       </c>
       <c r="J94" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K94">
         <v>3</v>
@@ -8772,8 +10428,23 @@
       <c r="W94">
         <v>-0.39</v>
       </c>
+      <c r="X94">
+        <v>-1.32</v>
+      </c>
+      <c r="Y94">
+        <v>11.34</v>
+      </c>
+      <c r="Z94">
+        <v>4.04</v>
+      </c>
       <c r="AC94" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
       </c>
       <c r="AF94">
         <v>0</v>
@@ -8781,22 +10452,25 @@
       <c r="AG94">
         <v>3.305721759796143</v>
       </c>
-      <c r="AH94" t="s">
-        <v>193</v>
+      <c r="AH94">
+        <v>0</v>
+      </c>
+      <c r="AI94">
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34">
+    <row r="95" spans="1:35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C95">
         <v>688603</v>
       </c>
       <c r="D95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E95">
         <v>1.02</v>
@@ -8814,7 +10488,7 @@
         <v>41229.52</v>
       </c>
       <c r="J95" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K95">
         <v>1</v>
@@ -8855,8 +10529,23 @@
       <c r="W95">
         <v>0.21</v>
       </c>
+      <c r="X95">
+        <v>1.97</v>
+      </c>
+      <c r="Y95">
+        <v>70</v>
+      </c>
+      <c r="Z95">
+        <v>10.6</v>
+      </c>
       <c r="AC95" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
       </c>
       <c r="AF95">
         <v>0</v>
@@ -8864,22 +10553,25 @@
       <c r="AG95">
         <v>1.257440447807312</v>
       </c>
-      <c r="AH95" t="s">
-        <v>193</v>
+      <c r="AH95">
+        <v>0</v>
+      </c>
+      <c r="AI95">
+        <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34">
+    <row r="96" spans="1:35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C96">
         <v>688630</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E96">
         <v>-4.34</v>
@@ -8897,7 +10589,7 @@
         <v>120909.99</v>
       </c>
       <c r="J96" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K96">
         <v>5</v>
@@ -8938,8 +10630,23 @@
       <c r="W96">
         <v>-1.18</v>
       </c>
+      <c r="X96">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="Y96">
+        <v>134.2</v>
+      </c>
+      <c r="Z96">
+        <v>10.81</v>
+      </c>
       <c r="AC96" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+      <c r="AE96">
+        <v>1</v>
       </c>
       <c r="AF96">
         <v>0</v>
@@ -8947,22 +10654,25 @@
       <c r="AG96">
         <v>2.755050182342529</v>
       </c>
-      <c r="AH96" t="s">
-        <v>193</v>
+      <c r="AH96">
+        <v>0</v>
+      </c>
+      <c r="AI96">
+        <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34">
+    <row r="97" spans="1:35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C97">
         <v>688660</v>
       </c>
       <c r="D97" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E97">
         <v>-1.38</v>
@@ -8980,7 +10690,7 @@
         <v>68756.89999999999</v>
       </c>
       <c r="J97" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K97">
         <v>6</v>
@@ -9021,8 +10731,23 @@
       <c r="W97">
         <v>-0.08</v>
       </c>
+      <c r="X97">
+        <v>-16.61</v>
+      </c>
+      <c r="Y97">
+        <v>15.91</v>
+      </c>
+      <c r="Z97">
+        <v>-3.11</v>
+      </c>
       <c r="AC97" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+      <c r="AE97">
+        <v>0</v>
       </c>
       <c r="AF97">
         <v>0</v>
@@ -9030,22 +10755,25 @@
       <c r="AG97">
         <v>3.001880168914795</v>
       </c>
-      <c r="AH97" t="s">
-        <v>193</v>
+      <c r="AH97">
+        <v>0</v>
+      </c>
+      <c r="AI97">
+        <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34">
+    <row r="98" spans="1:35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C98">
         <v>688787</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E98">
         <v>1.11</v>
@@ -9063,7 +10791,7 @@
         <v>35668.67</v>
       </c>
       <c r="J98" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K98">
         <v>1</v>
@@ -9104,8 +10832,23 @@
       <c r="W98">
         <v>0.09</v>
       </c>
+      <c r="X98">
+        <v>-2.37</v>
+      </c>
+      <c r="Y98">
+        <v>145</v>
+      </c>
+      <c r="Z98">
+        <v>1.73</v>
+      </c>
       <c r="AC98" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
       </c>
       <c r="AF98">
         <v>0</v>
@@ -9113,8 +10856,11 @@
       <c r="AG98">
         <v>4.727174282073975</v>
       </c>
-      <c r="AH98" t="s">
-        <v>193</v>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AI98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
